--- a/data_modelo/aeropuertos_modelo.xlsx
+++ b/data_modelo/aeropuertos_modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esoutullo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{803E8F35-BDB8-4ADD-AC41-2B008D382DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C0C1A2-1C3B-4097-B06B-057096554A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aeropuertos_modelo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>latitud</t>
   </si>
@@ -28,9 +28,6 @@
     <t>longitud</t>
   </si>
   <si>
-    <t>IATA</t>
-  </si>
-  <si>
     <t>nombre_aeropuerto</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>COR</t>
   </si>
   <si>
-    <t>Int. Ingeniero Ambrosio Taravella</t>
-  </si>
-  <si>
     <t>Córdoba</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>USH</t>
   </si>
   <si>
-    <t>Int. Malvinas Argentinas</t>
-  </si>
-  <si>
     <t>Ushuaia</t>
   </si>
   <si>
@@ -70,12 +61,6 @@
     <t>TUC</t>
   </si>
   <si>
-    <t>Int. Tte. Gral. Benjamín Matienzo</t>
-  </si>
-  <si>
-    <t>San Miguel de Tucumán (Est. Tucumán)</t>
-  </si>
-  <si>
     <t>Tucumán</t>
   </si>
   <si>
@@ -97,9 +82,6 @@
     <t>MDZ</t>
   </si>
   <si>
-    <t>Int. El Plumerillo/Gob. Francisco Gabrielli</t>
-  </si>
-  <si>
     <t>Mendoza</t>
   </si>
   <si>
@@ -109,9 +91,6 @@
     <t>Aeroparque Jorge Newbery</t>
   </si>
   <si>
-    <t>Ciudad de Buenos Aires</t>
-  </si>
-  <si>
     <t>Ciudad Autónoma de Buenos Aires</t>
   </si>
   <si>
@@ -149,12 +128,45 @@
   </si>
   <si>
     <t>-58.415600</t>
+  </si>
+  <si>
+    <t>icono</t>
+  </si>
+  <si>
+    <t>poncho-aeropuerto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poncho-marcador-ubicacion-2 </t>
+  </si>
+  <si>
+    <t>pasajeros</t>
+  </si>
+  <si>
+    <t>iata</t>
+  </si>
+  <si>
+    <t>Int. El Plumerillo</t>
+  </si>
+  <si>
+    <t>San Miguel de Tucumán</t>
+  </si>
+  <si>
+    <t>CABA</t>
+  </si>
+  <si>
+    <t>Tte. Gral. Benjamín Matienzo</t>
+  </si>
+  <si>
+    <t>Malvinas Argentinas</t>
+  </si>
+  <si>
+    <t>Ingeniero A. Taravella</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -632,9 +644,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -989,19 +1002,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="11.42578125" style="2"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,161 +1024,204 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>40000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8000</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="I4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
+      <c r="I6" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
+      <c r="G7" s="2">
+        <v>800000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
     <ignoredError sqref="A2:B7" numberStoredAsText="1"/>
   </ignoredErrors>
